--- a/htdocs/App/Controllers/Traspasos/3650CTN.xlsx
+++ b/htdocs/App/Controllers/Traspasos/3650CTN.xlsx
@@ -31,7 +31,7 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>07-11-2017</t>
+    <t>22-12-2017</t>
   </si>
   <si>
     <t>Atendido por:</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-11-07</t>
+    <t>2017-12-22</t>
   </si>
   <si>
     <t>x</t>
@@ -94,7 +94,7 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>DIEGO G</t>
+    <t>AOUAGE ABDERRAHIME</t>
   </si>
   <si>
     <t>No disponible</t>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="57">
-        <v>1046</v>
+        <v>1593</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
